--- a/biology/Zoologie/Calephelis_virginiensis/Calephelis_virginiensis.xlsx
+++ b/biology/Zoologie/Calephelis_virginiensis/Calephelis_virginiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calephelis virginiensis est un insecte lépidoptère de la famille des Papilionidae, de la sous-famille des Riodinidae et du genre Calephelis.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Calephelis virginiensis par Félix Édouard Guérin-Méneville en 1831.
-Synonymes : Erycina virginiensis Guérin-Méneville, 1831; Nymphidia pumila Boisduval et Le Conte, [1835]; Charis virginiensis; Lephelisca virginiensis ; Calephelis virginiensis ; McAlpine, 1971[1].
-Noms vernaculaires
-Calephelis virginiensis se nomme Little Metalmark ou Virginia Metalmark en anglais[1].
+Synonymes : Erycina virginiensis Guérin-Méneville, 1831; Nymphidia pumila Boisduval et Le Conte, ; Charis virginiensis; Lephelisca virginiensis ; Calephelis virginiensis ; McAlpine, 1971.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calephelis virginiensis est un assez petit papillon (son envergure varie de 13 à 25 mm) de couleur orange orné de lignes parallèles à la bordure, de couleur gris métallisé. Le revers est de couleur orange avec les mêmes lignes métallisées[2].
-Chenille et chrysalide
-Les chenilles sont de couleur gris vert pâle et portent de longs poils blancs[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calephelis virginiensis se nomme Little Metalmark ou Virginia Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -575,16 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Les imagos volent de mars à octobre en deux à cinq générations[4].
-Il hiverne au stade de chenille[4].
-Plantes hôtes
-La plante hôte de sa chenille est un Cirsium, Cirsium horridulum [1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calephelis virginiensis est un assez petit papillon (son envergure varie de 13 à 25 mm) de couleur orange orné de lignes parallèles à la bordure, de couleur gris métallisé. Le revers est de couleur orange avec les mêmes lignes métallisées.
 </t>
         </is>
       </c>
@@ -610,16 +624,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont de couleur gris vert pâle et portent de longs poils blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos volent de mars à octobre en deux à cinq générations.
+Il hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est un Cirsium, Cirsium horridulum .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le sud-est de l'Amérique du Nord, dans la plaine atlantique, du sud du Maryland à la Floride et le long des côtes du Golfe du Mexique, jusqu'au Texas et au Mexique [2].
-Biotope
-Il affectionne les lieux ouverts, prairies et bords de routes[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud-est de l'Amérique du Nord, dans la plaine atlantique, du sud du Maryland à la Floride et le long des côtes du Golfe du Mexique, jusqu'au Texas et au Mexique .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les lieux ouverts, prairies et bords de routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calephelis_virginiensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
